--- a/biology/Botanique/Tecoma_capensis/Tecoma_capensis.xlsx
+++ b/biology/Botanique/Tecoma_capensis/Tecoma_capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tecoma capensis connu parfois sous le nom de Chèvrefeuille du Cap est une espèce d'arbuste de la famille des Bignoniaceae originaire du sud de l'Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il atteint environ 2 à 3 mètres de hauteur sur autant de largeur.
 Les feuilles sont persistantes à semi-décidues dans les climats froids. Elles sont opposées, légèrement dentelées, vert à vert foncé, pennées, à 5 à 9 folioles oblongues.
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente naturellement en Afrique du Sud, au Swaziland et au sud du Mozambique.
 </t>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est cultivé depuis de nombreuses années et est souvent utilisé pour faire des haies, car c'est un buisson. On peut le multiplier par boutures ou par prélèvement de drageons enracinés au cours de la phase de croissance active.
 Dans les zones froides, les jeunes plants doivent être protégés. On peut le planter à mi-ombre à plein soleil. Pour conserver cet arbuste propre et rangé, il doit être rabattu en fin d'hiver pour favoriser la croissance et la floraison. L'application d'un engrais équilibré après la taille permettra d'améliorer les résultats.
@@ -608,7 +626,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chèvrefeuille du Cap est une excellente plante à utiliser dans un jardin pour la faune d'Afrique australe car il est apprécié de souimangas en raison de son nectar. Si bien taillé, il peut être assez touffu pour être utilisé comme site de nidification par certaines espèces d'oiseaux rares.
 Les chenilles du Sphinx tête de mort (Acherontia atropos) et de Coelonia mauritii mangent ses feuilles.
